--- a/xlsx/社会科学_intext.xlsx
+++ b/xlsx/社会科学_intext.xlsx
@@ -15,1821 +15,1767 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="587">
   <si>
     <t>社会科学</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%AA%BF%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>市场调查</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>形式科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
+  </si>
+  <si>
+    <t>逻辑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E9%80%BB%E8%BE%91</t>
+  </si>
+  <si>
+    <t>数理逻辑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数理统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>理论计算机科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>物理科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E7%A2%B1%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>酸碱理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>分析化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>环境化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%9C%BA%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>无机化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>核化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%9C%BA%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>有机化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>物理化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E4%BD%93%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>固体化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%88%86%E5%AD%90%E5%8C%96%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>超分子化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>绿色化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>理论化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%93%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>天体化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生物化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E4%BD%93%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>晶体学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>食品化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地球化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>材料科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>分子物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>光化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>放射化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E4%BD%93%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>立体化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E9%9D%A2%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>表面科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%85%B8%E7%89%A9%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经典物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E7%89%A9%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>现代物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>应用物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E7%89%A9%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>实验物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>理论物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>计算物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>原子物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%9D%E8%81%9A%E6%80%81%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>凝聚态物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>力学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E5%85%B8%E5%8A%9B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经典力学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E7%BB%AD%E4%BB%8B%E8%B4%A8%E5%8A%9B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>连续介质力学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E4%BD%93%E5%8A%9B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>流体力学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E4%BD%93%E5%8A%9B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>固体力学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E6%A0%B8%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>原子核物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>粒子物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%A6%BB%E5%AD%90%E4%BD%93</t>
+  </si>
+  <si>
+    <t>等离子体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%9C%BA%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>量子场论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>量子力学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8%E5%85%A5%E9%96%80</t>
+  </si>
+  <si>
+    <t>量子力学入门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AD%E4%B9%89%E7%9B%B8%E5%AF%B9%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>狭义相对论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
+  </si>
+  <si>
+    <t>广义相对论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8F%98%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>流变学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%A6%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>弦理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%8A%9B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>热力学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地球科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E5%80%99%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>气候学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>土壤学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>环境科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%B0%E6%B5%8B%E9%87%8F%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>大地测量学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>自然地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地质学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B2%8C%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地貌学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地球物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>冰川学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>水文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B2%BC%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>湖沼学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E8%B1%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>气象学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>海洋学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%B0%A3%E5%80%99%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>古气候学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>古生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A2%E7%B2%89%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>孢粉学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>火山学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>空间科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>天文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>天体物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宇宙学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E7%B3%BB%E5%A4%A9%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>银河系天文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>行星地质学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>行星科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%92%E6%98%9F</t>
+  </si>
+  <si>
+    <t>恒星</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生命科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%89%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>解剖学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%AB%94%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>天体生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生物地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生物工程学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%89%A9%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生物物理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生物心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>生物技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>植物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%86%E8%83%9E%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>细胞生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>保育生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E6%B8%A9%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>低温生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>发育生物学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ethnobiology</t>
+  </si>
+  <si>
+    <t>en-Ethnobiology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E8%A1%8C%E4%B8%BA%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>动物行为学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>演化生物学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Introduction_to_evolution</t>
+  </si>
+  <si>
+    <t>en-Introduction to evolution</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>遗传学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%AD%A6%E5%85%A5%E9%97%A8</t>
+  </si>
+  <si>
+    <t>遗传学入门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>老人学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>免疫学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>海洋生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>微生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>分子生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>神经科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>古生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E7%94%9F%E8%99%AB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>寄生虫学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>放射生物学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Soil_biology</t>
+  </si>
+  <si>
+    <t>en-Soil biology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%88%86%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>系统分类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>毒理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>动物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>犯罪学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人口学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人文地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国际关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>语言学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>科学教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>应用科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>工程学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>航空航天工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>农业工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%BB%E5%AD%A6%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>生物医学工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>化学工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%9C%A8%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>土木工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>计算机科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>计算机工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>电机工程学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>消防工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>基因工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>工业工程学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>机械工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>军事工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>矿业工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>核工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>运筹学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8%E4%BA%BA%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>机器人学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Web_engineering</t>
+  </si>
+  <si>
+    <t>en-Web engineering</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>医疗卫生科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%BD%E5%8C%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>兽医学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%86%AB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>牙医学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Midwifery</t>
+  </si>
+  <si>
+    <t>en-Midwifery</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>流行病学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>药学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%A4%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>护理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%99%85%E6%95%B4%E5%90%88</t>
+  </si>
+  <si>
+    <t>科际整合</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生物伦理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生物信息学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生物统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>认知科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%9D%82%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>复杂系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>计算语言学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>文化研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>控制论</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
+  </si>
+  <si>
+    <t>en-Environmental social science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_studies</t>
+  </si>
+  <si>
+    <t>en-Environmental studies</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ethnic_studies</t>
+  </si>
+  <si>
+    <t>en-Ethnic studies</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>演化心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>司法科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>林业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>图书馆学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>数理生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E7%89%A9%E7%90%86</t>
+  </si>
+  <si>
+    <t>数学物理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>军事学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>网络科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>神经工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Science_studies</t>
+  </si>
+  <si>
+    <t>Science studies</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Scientific_modelling</t>
+  </si>
+  <si>
+    <t>en-Scientific modelling</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>符号学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>统计学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Systems_science</t>
+  </si>
+  <si>
+    <t>en-Systems science</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
+  </si>
+  <si>
+    <t>城市规划</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Web_science</t>
+  </si>
+  <si>
+    <t>en-Web science</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>科学哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>科学史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A1%80%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>基础科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E4%BC%97%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>公众科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>边缘科学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Protoscience</t>
+  </si>
+  <si>
+    <t>en-Protoscience</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AA%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>伪科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>学术自由</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Science_policy</t>
+  </si>
+  <si>
+    <t>en-Science policy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Funding_of_science</t>
+  </si>
+  <si>
+    <t>en-Funding of science</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E6%96%B9%E6%B3%95</t>
+  </si>
+  <si>
+    <t>科学方法</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technoscience</t>
+  </si>
+  <si>
+    <t>en-Technoscience</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>垃圾科学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Outline_of_science</t>
+  </si>
+  <si>
+    <t>en-Outline of science</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>Template talk-科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>当代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>伦理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>启蒙运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>国际关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>行政学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>历史学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>新闻学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>公共关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>公共行政学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>传播学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>民族学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BF%97%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>民俗学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宗教学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>组织心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E8%A1%8C%E7%82%BA%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>组织行为学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>自然科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>中国大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%91%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>中国科学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>南京大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9B%BD%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>民国时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E4%BC%A6%E5%A4%9A%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>多伦多大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>中国社会科学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%AD%A6%E7%A7%91</t>
+  </si>
+  <si>
+    <t>人文学科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>计算社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>环境地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>乡村社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>文化人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人与动物关系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>区域研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>商学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会神经科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Community_studies</t>
+  </si>
+  <si>
+    <t>en-Community studies</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Development_studies</t>
+  </si>
+  <si>
+    <t>en-Development studies</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>食品研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>性别研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>全球研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>技术史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人类生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>信息学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>国际研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>媒体研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经济哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>历史哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心理哲学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Philosophy_of_social_science</t>
+  </si>
+  <si>
+    <t>en-Philosophy of social science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Land-use_planning</t>
+  </si>
+  <si>
+    <t>en-Land-use planning</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
+  </si>
+  <si>
+    <t>公共卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>区域经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>科技与社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>科学研究</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
+  </si>
+  <si>
+    <t>en-Geisteswissenschaft</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人文科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%AA%BF%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>市場調查</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_社会科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>形式科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
-  </si>
-  <si>
-    <t>逻辑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E9%80%BB%E8%BE%91</t>
-  </si>
-  <si>
-    <t>数理逻辑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数理统计学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>理論計算機科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>物理科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>化學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E7%A2%B1%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>酸碱理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>分析化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>环境化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%9C%BA%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>无机化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>核化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%9C%BA%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>有机化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>物理化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E4%BD%93%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>固体化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%88%86%E5%AD%90%E5%8C%96%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>超分子化學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>绿色化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>理论化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%93%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>天体化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生物化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E4%BD%93%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>晶体学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>食品化學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地球化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>材料科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>分子物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>光化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>放射化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E4%BD%93%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>立体化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E9%9D%A2%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>表面科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%85%B8%E7%89%A9%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經典物理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E7%89%A9%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>現代物理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>应用物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E7%89%A9%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>實驗物理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>理论物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>计算物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>原子物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%9D%E8%81%9A%E6%80%81%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>凝聚态物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>力学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E5%85%B8%E5%8A%9B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经典力学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E7%BB%AD%E4%BB%8B%E8%B4%A8%E5%8A%9B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>连续介质力学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E4%BD%93%E5%8A%9B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>流体力学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E4%BD%93%E5%8A%9B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>固体力学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E6%A0%B8%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>原子核物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>粒子物理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%A6%BB%E5%AD%90%E4%BD%93</t>
-  </si>
-  <si>
-    <t>等离子体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%9C%BA%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>量子场论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>量子力学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8%E5%85%A5%E9%96%80</t>
-  </si>
-  <si>
-    <t>量子力學入門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AD%E4%B9%89%E7%9B%B8%E5%AF%B9%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>狭义相对论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
-  </si>
-  <si>
-    <t>廣義相對論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8F%98%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>流变学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%A6%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>弦理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%8A%9B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>热力学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地球科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E5%80%99%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>气候学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生态学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%A3%A4%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>土壤学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>环境科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%B0%E6%B5%8B%E9%87%8F%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>大地测量学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>自然地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地质学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B2%8C%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地貌学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地球物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>冰川学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>水文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B2%BC%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>湖沼學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E8%B1%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>气象学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>海洋学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%B0%A3%E5%80%99%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>古氣候學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>古生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A2%E7%B2%89%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>孢粉学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>火山学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>空间科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>天文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>天体物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宇宙学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E7%B3%BB%E5%A4%A9%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>銀河系天文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>行星地質學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>行星科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%92%E6%98%9F</t>
-  </si>
-  <si>
-    <t>恒星</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生命科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%89%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>解剖学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%AB%94%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>天體生物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生物地理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生物工程学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%89%A9%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生物物理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生物心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>生物技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>植物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%86%E8%83%9E%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>细胞生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>保育生物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E6%B8%A9%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>低温生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>发育生物学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ethnobiology</t>
-  </si>
-  <si>
-    <t>en-Ethnobiology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E8%A1%8C%E4%B8%BA%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>动物行为学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>演化生物学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Introduction_to_evolution</t>
-  </si>
-  <si>
-    <t>en-Introduction to evolution</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>遗传学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%AD%A6%E5%85%A5%E9%97%A8</t>
-  </si>
-  <si>
-    <t>遗传学入门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>老人學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>免疫学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>海洋生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>微生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>分子生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>神经科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>古生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E7%94%9F%E8%99%AB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>寄生虫学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>放射生物學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Soil_biology</t>
-  </si>
-  <si>
-    <t>en-Soil biology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會生物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%88%86%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>系統分類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>毒理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>动物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人类学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>考古学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>犯罪學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人口学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人文地理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國際關係學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>语言学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>科學教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>應用科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>工程学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>航空航天工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>农业工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%BB%E5%AD%A6%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>生物医学工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>化学工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%9C%A8%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>土木工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>计算机科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>計算機工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>電機工程學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>消防工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>基因工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>工业工程学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>机械工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>軍事工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>矿业工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>核工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>運籌學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8%E4%BA%BA%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>机器人学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>软件工程</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Web_engineering</t>
-  </si>
-  <si>
-    <t>en-Web engineering</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>醫療衛生科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>医学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%BD%E5%8C%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>兽医学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%86%AB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>牙醫學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Midwifery</t>
-  </si>
-  <si>
-    <t>en-Midwifery</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>流行病学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>药学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%A4%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>护理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%99%85%E6%95%B4%E5%90%88</t>
-  </si>
-  <si>
-    <t>科际整合</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD</t>
-  </si>
-  <si>
-    <t>人工智能</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生物倫理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生物信息学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生物統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>认知科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%9D%82%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>复杂系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>计算语言学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>文化研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>控制论</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
-  </si>
-  <si>
-    <t>en-Environmental social science</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_studies</t>
-  </si>
-  <si>
-    <t>en-Environmental studies</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ethnic_studies</t>
-  </si>
-  <si>
-    <t>en-Ethnic studies</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>演化心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>司法科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>林业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>图书馆学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>數理生物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E7%89%A9%E7%90%86</t>
-  </si>
-  <si>
-    <t>数学物理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>军事学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>网络科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>神经工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Science_studies</t>
-  </si>
-  <si>
-    <t>Science studies</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Scientific_modelling</t>
-  </si>
-  <si>
-    <t>en-Scientific modelling</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>符號學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>统计学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Systems_science</t>
-  </si>
-  <si>
-    <t>en-Systems science</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
-  </si>
-  <si>
-    <t>城市规划</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Web_science</t>
-  </si>
-  <si>
-    <t>en-Web science</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>科学哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>科学史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A1%80%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>基础科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E4%BC%97%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>公众科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>边缘科学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Protoscience</t>
-  </si>
-  <si>
-    <t>en-Protoscience</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AA%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>伪科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>学术自由</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Science_policy</t>
-  </si>
-  <si>
-    <t>en-Science policy</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Funding_of_science</t>
-  </si>
-  <si>
-    <t>en-Funding of science</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E6%96%B9%E6%B3%95</t>
-  </si>
-  <si>
-    <t>科学方法</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Technoscience</t>
-  </si>
-  <si>
-    <t>en-Technoscience</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>垃圾科学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Outline_of_science</t>
-  </si>
-  <si>
-    <t>en-Outline of science</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>科學史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>Template talk-科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB</t>
-  </si>
-  <si>
-    <t>人类</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>当代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%BA%90</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>醫學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>教育學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>語言學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>倫理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>啟蒙運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
-  </si>
-  <si>
-    <t>台灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>國際關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>行政学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>歷史學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>新聞學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>公共关系学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>傳播學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>民族学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BF%97%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>民俗学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宗教学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>組織心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E8%A1%8C%E7%82%BA%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>組織行為學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>自然科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%91%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>中国科学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>南京大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9B%BD%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>民国时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E4%BC%A6%E5%A4%9A%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>多伦多大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>中国社会科学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>马克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>马克思主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%AD%A6%E7%A7%91</t>
-  </si>
-  <si>
-    <t>人文学科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>計算社會科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人文地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>環境地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>法學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>鄉村社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>考古學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>文化人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人與動物關係學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>區域研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>商學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会神经科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>認知科學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Community_studies</t>
-  </si>
-  <si>
-    <t>en-Community studies</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Development_studies</t>
-  </si>
-  <si>
-    <t>en-Development studies</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>食品研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>性别研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>全球研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>技术史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人類生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>信息学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>國際研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>媒體研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科學哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>历史哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理哲学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Philosophy_of_social_science</t>
-  </si>
-  <si>
-    <t>en-Philosophy of social science</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Land-use_planning</t>
-  </si>
-  <si>
-    <t>en-Land-use planning</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
-  </si>
-  <si>
-    <t>城市規劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
-  </si>
-  <si>
-    <t>公共衛生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>區域經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>科技與社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>科學研究</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
-  </si>
-  <si>
-    <t>en-Geisteswissenschaft</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人文科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8232,7 +8178,7 @@
         <v>417</v>
       </c>
       <c r="F209" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8258,10 +8204,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>10</v>
@@ -8287,10 +8233,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>5</v>
@@ -8316,10 +8262,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>32</v>
@@ -8345,10 +8291,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8374,10 +8320,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
         <v>427</v>
-      </c>
-      <c r="F214" t="s">
-        <v>428</v>
       </c>
       <c r="G214" t="n">
         <v>10</v>
@@ -8403,10 +8349,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
         <v>429</v>
-      </c>
-      <c r="F215" t="s">
-        <v>430</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -8432,10 +8378,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
         <v>431</v>
-      </c>
-      <c r="F216" t="s">
-        <v>432</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8461,10 +8407,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F217" t="s">
-        <v>434</v>
+        <v>272</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -8490,10 +8436,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F218" t="s">
-        <v>436</v>
+        <v>244</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8519,10 +8465,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F219" t="s">
-        <v>438</v>
+        <v>252</v>
       </c>
       <c r="G219" t="n">
         <v>6</v>
@@ -8548,10 +8494,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F220" t="s">
-        <v>440</v>
+        <v>266</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -8577,10 +8523,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F221" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8606,10 +8552,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F222" t="s">
-        <v>444</v>
+        <v>176</v>
       </c>
       <c r="G222" t="n">
         <v>6</v>
@@ -8635,10 +8581,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F223" t="s">
-        <v>446</v>
+        <v>130</v>
       </c>
       <c r="G223" t="n">
         <v>6</v>
@@ -8664,10 +8610,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>448</v>
+        <v>318</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8693,10 +8639,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F225" t="s">
-        <v>450</v>
+        <v>264</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -8722,10 +8668,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>452</v>
+        <v>268</v>
       </c>
       <c r="G226" t="n">
         <v>8</v>
@@ -8751,10 +8697,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>454</v>
+        <v>262</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8780,10 +8726,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F228" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8809,10 +8755,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F229" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8838,10 +8784,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F230" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8867,10 +8813,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F231" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8896,10 +8842,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F232" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8925,10 +8871,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>382</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8954,10 +8900,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -8983,10 +8929,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -9012,10 +8958,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -9041,10 +8987,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9070,10 +9016,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9099,10 +9045,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9128,10 +9074,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9157,10 +9103,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9186,10 +9132,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9215,10 +9161,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9244,10 +9190,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9273,10 +9219,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9302,10 +9248,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9331,10 +9277,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9360,10 +9306,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9389,10 +9335,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9418,10 +9364,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9447,10 +9393,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9476,10 +9422,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9505,10 +9451,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9534,10 +9480,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9563,10 +9509,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9592,10 +9538,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>8</v>
@@ -9621,10 +9567,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>514</v>
+        <v>437</v>
       </c>
       <c r="G257" t="n">
         <v>4</v>
@@ -9650,10 +9596,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F258" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9679,13 +9625,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F259" t="s">
-        <v>518</v>
+        <v>254</v>
       </c>
       <c r="G259" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -9708,13 +9654,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -9737,13 +9683,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>522</v>
+        <v>260</v>
       </c>
       <c r="G261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -9766,10 +9712,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="F262" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9795,10 +9741,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>525</v>
+        <v>249</v>
       </c>
       <c r="F263" t="s">
-        <v>526</v>
+        <v>250</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9824,10 +9770,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>250</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9853,13 +9799,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -9882,13 +9828,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>246</v>
       </c>
       <c r="G266" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -9911,13 +9857,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -9940,13 +9886,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -9969,10 +9915,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9998,10 +9944,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10027,10 +9973,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10056,10 +10002,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>342</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10085,10 +10031,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10114,10 +10060,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10143,10 +10089,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10172,10 +10118,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10201,10 +10147,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10230,10 +10176,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10259,10 +10205,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10288,13 +10234,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="F280" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10317,13 +10263,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10346,10 +10292,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="F282" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10375,10 +10321,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="F283" t="s">
-        <v>564</v>
+        <v>390</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10404,13 +10350,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="F284" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -10433,10 +10379,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>7</v>
@@ -10462,13 +10408,13 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="F286" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="G286" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -10491,13 +10437,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="G287" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -10520,10 +10466,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10549,10 +10495,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>386</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10578,10 +10524,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10607,10 +10553,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10636,10 +10582,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10665,10 +10611,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10694,10 +10640,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10723,10 +10669,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10752,10 +10698,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10781,10 +10727,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10810,13 +10756,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -10839,13 +10785,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="G299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -10868,10 +10814,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10897,10 +10843,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10926,10 +10872,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10955,18 +10901,47 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
       </c>
       <c r="I303" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>303</v>
+      </c>
+      <c r="E304" t="s">
+        <v>584</v>
+      </c>
+      <c r="F304" t="s">
+        <v>586</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1</v>
+      </c>
+      <c r="H304" t="s">
+        <v>4</v>
+      </c>
+      <c r="I304" t="n">
         <v>3</v>
       </c>
     </row>
